--- a/LL(1)分析表.xlsx
+++ b/LL(1)分析表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>标识符</t>
   </si>
@@ -27,9 +27,6 @@
     <t>字符</t>
   </si>
   <si>
-    <t>void</t>
-  </si>
-  <si>
     <t>char</t>
   </si>
   <si>
@@ -54,25 +51,13 @@
     <t>等号</t>
   </si>
   <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
     <t>程序</t>
-  </si>
-  <si>
-    <t>外部声明</t>
-  </si>
-  <si>
-    <t>函数定义</t>
-  </si>
-  <si>
-    <t>函数返回值类型</t>
-  </si>
-  <si>
-    <t>函数声明</t>
-  </si>
-  <si>
-    <t>参数列表</t>
-  </si>
-  <si>
-    <t>参数声明</t>
   </si>
   <si>
     <t>函数主体</t>
@@ -104,12 +89,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,7 +125,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,9 +146,92 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,51 +252,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,60 +261,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,31 +275,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,151 +443,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,45 +493,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -578,6 +517,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -588,157 +542,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -750,6 +728,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1097,10 +1078,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1146,28 +1127,24 @@
       <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2"/>
+      <c r="N1" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="M2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1178,190 +1155,97 @@
       <c r="G3">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
         <v>6</v>
       </c>
-      <c r="H5">
-        <v>7</v>
+      <c r="G6">
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <v>9</v>
-      </c>
-      <c r="H7">
-        <v>9</v>
-      </c>
-      <c r="J7">
-        <v>10</v>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8">
-        <v>11</v>
-      </c>
-      <c r="G8">
-        <v>11</v>
-      </c>
-      <c r="H8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>12</v>
       </c>
-      <c r="F9">
-        <v>12</v>
-      </c>
-      <c r="G9">
-        <v>12</v>
-      </c>
-      <c r="H9">
-        <v>12</v>
-      </c>
-      <c r="L9">
-        <v>12</v>
-      </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>13</v>
       </c>
-      <c r="F10">
+      <c r="C10">
         <v>14</v>
       </c>
-      <c r="G10">
-        <v>14</v>
-      </c>
-      <c r="H10">
-        <v>14</v>
-      </c>
-      <c r="L10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11">
+      <c r="D10">
         <v>15</v>
-      </c>
-      <c r="G11">
-        <v>15</v>
-      </c>
-      <c r="H11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12">
-        <v>17</v>
-      </c>
-      <c r="G12">
-        <v>16</v>
-      </c>
-      <c r="H12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13">
-        <v>20</v>
-      </c>
-      <c r="L13">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16">
-        <v>23</v>
-      </c>
-      <c r="C16">
-        <v>24</v>
-      </c>
-      <c r="D16">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
